--- a/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7.xlsx
+++ b/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7.xlsx
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="163">
   <si>
     <t>No</t>
   </si>
@@ -630,6 +630,29 @@
   </si>
   <si>
     <t>mogoda-tasktracker</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>58对接二期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC，BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>李萌</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1286,6 +1309,15 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1312,15 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1708,7 +1731,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2340,28 +2363,54 @@
       <c r="U11" s="54"/>
       <c r="V11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="39">
+        <v>42716</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="39">
+        <v>42716</v>
+      </c>
       <c r="K12" s="38"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="L12" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>162</v>
+      </c>
       <c r="O12" s="47"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="47"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
       <c r="T12" s="51"/>
-      <c r="U12" s="54"/>
+      <c r="U12" s="52"/>
       <c r="V12" s="53"/>
     </row>
     <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -5906,10 +5955,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576 L10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10 M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -6024,16 +6073,16 @@
       <c r="C2" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="80" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="82" t="s">
         <v>116</v>
       </c>
       <c r="H2" s="70" t="s">
@@ -6135,19 +6184,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6185,8 +6234,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6198,8 +6247,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6211,8 +6260,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6224,8 +6273,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6237,8 +6286,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6250,8 +6299,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6263,8 +6312,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6276,8 +6325,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6338,36 +6387,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6652,36 +6701,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6966,36 +7015,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7565,36 +7614,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7.xlsx
+++ b/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="179">
   <si>
     <t>No</t>
   </si>
@@ -389,9 +389,6 @@
   </si>
   <si>
     <t>修复敏感词过滤占用CPU问题</t>
-  </si>
-  <si>
-    <t>Fix Bugs</t>
   </si>
   <si>
     <t>全部项目</t>
@@ -654,6 +651,77 @@
   <si>
     <t>李萌</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.7</t>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>#memcached-server
+memcached.memClientBiz1.host=
+memcached.memClientBiz1.port=
+memcached.memClientBiz1.weight=10
+memcached.memClientBiz2.host=
+memcached.memClientBiz2.port=
+memcached.memClientBiz2.weight=10
+memcached.memClientBiz3.host=
+memcached.memClientBiz3.port=
+memcached.memClientBiz3.weight=10
+memcached.memClientSearch1.host=
+memcached.memClientSearch1.port=
+memcached.memClientSearch1.weight=10
+memcached.memClientSearch2.host=
+memcached.memClientSearch2.port=
+memcached.memClientSearch2.weight=10</t>
+  </si>
+  <si>
+    <t>Memcached
+一致性Hash环
+配置</t>
+  </si>
+  <si>
+    <t>九天</t>
+  </si>
+  <si>
+    <t>host,port请根据
+实际服务器情况配置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-messages</t>
+  </si>
+  <si>
+    <t>host,port请根据
+实际服务器情况配置</t>
+  </si>
+  <si>
+    <t>mogoroom-partner</t>
+  </si>
+  <si>
+    <t>mogoroom-partnerpc</t>
+  </si>
+  <si>
+    <t>mogoroom-payapi</t>
+  </si>
+  <si>
+    <t>mogoroom-renter</t>
+  </si>
+  <si>
+    <t>mogoroom-renterembed</t>
+  </si>
+  <si>
+    <t>mogoroom-renterpc</t>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1106,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,8 +1135,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1318,6 +1389,15 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1346,7 +1426,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1356,6 +1436,7 @@
     <cellStyle name="常规 4 2" xfId="10"/>
     <cellStyle name="常规 5" xfId="9"/>
     <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="着色 4" xfId="8" builtinId="41"/>
@@ -1731,7 +1812,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2279,10 +2360,10 @@
         <v>103</v>
       </c>
       <c r="E10" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>105</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>73</v>
@@ -2298,7 +2379,7 @@
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M10" s="38" t="s">
         <v>100</v>
@@ -2326,10 +2407,10 @@
         <v>69</v>
       </c>
       <c r="D11" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>108</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>72</v>
@@ -2348,7 +2429,7 @@
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>100</v>
@@ -2374,13 +2455,13 @@
         <v>89</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>73</v>
@@ -2389,20 +2470,20 @@
         <v>42716</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12" s="39">
         <v>42716</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="M12" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="N12" s="38" t="s">
         <v>161</v>
-      </c>
-      <c r="N12" s="38" t="s">
-        <v>162</v>
       </c>
       <c r="O12" s="47"/>
       <c r="P12" s="39"/>
@@ -6065,55 +6146,55 @@
     </row>
     <row r="2" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="C2" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="D2" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="E2" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="H2" s="70" t="s">
         <v>116</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>117</v>
       </c>
       <c r="I2" s="71" t="s">
         <v>101</v>
       </c>
       <c r="J2" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="L2" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="M2" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="72" t="s">
+      <c r="N2" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="O2" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="P2" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="Q2" s="74" t="s">
         <v>124</v>
-      </c>
-      <c r="Q2" s="74" t="s">
-        <v>125</v>
       </c>
       <c r="R2" s="74"/>
     </row>
@@ -6184,19 +6265,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6234,8 +6315,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6247,8 +6328,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6260,8 +6341,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6273,8 +6354,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6286,8 +6367,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6299,8 +6380,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6312,8 +6393,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6325,8 +6406,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6368,7 +6449,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A4" sqref="A4:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6387,36 +6468,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6459,218 +6540,475 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+    <row r="4" spans="1:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="83">
+        <v>1</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A5" s="83">
+        <v>2</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A6" s="83">
+        <v>3</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A7" s="83">
+        <v>4</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A8" s="83">
+        <v>5</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A9" s="83">
+        <v>6</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M9" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A10" s="83">
+        <v>7</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A11" s="83">
+        <v>8</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A12" s="83">
+        <v>9</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A13" s="83">
+        <v>10</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="85" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I13">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6682,7 +7020,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6701,36 +7039,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6773,185 +7111,445 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+    <row r="4" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A4" s="83">
+        <v>1</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A5" s="83">
+        <v>2</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A6" s="83">
+        <v>3</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A7" s="83">
+        <v>4</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A8" s="83">
+        <v>5</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A9" s="83">
+        <v>6</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M9" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A10" s="83">
+        <v>7</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A11" s="83">
+        <v>8</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A12" s="83">
+        <v>9</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="330" x14ac:dyDescent="0.15">
+      <c r="A13" s="83">
+        <v>10</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="85" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
@@ -6973,17 +7571,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I13">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7015,36 +7610,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7133,40 +7728,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="E5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="G5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="K5" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7174,40 +7769,40 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="D6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7215,40 +7810,40 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7256,40 +7851,40 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7297,40 +7892,40 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="M9" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7338,40 +7933,40 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7379,40 +7974,40 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="K11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7420,40 +8015,40 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="M12" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -7461,40 +8056,40 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7502,40 +8097,40 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7614,36 +8209,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
